--- a/branches/Woodpecker_All/Woodpecker/Woodpecker/Reference/Schedule/Woodpecker_Script Template(Without RC).xlsx
+++ b/branches/Woodpecker_All/Woodpecker/Woodpecker/Reference/Schedule/Woodpecker_Script Template(Without RC).xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\auo\rd\ASC\RRVC00\ADQAA0\[2] Smart Test\Woodpecker\Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\auo\rd\ASC\ADQA00\ADQAA0\[2] Smart Test\Woodpecker\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -42,6 +42,7 @@
     <definedName name="_temp" comment="溫度選單-20~50">List!$K$9:$K$23</definedName>
     <definedName name="Cmd_list">List!$A$2:$A$21</definedName>
     <definedName name="COM" comment="COM PORT">List!$D$2:$D$8</definedName>
+    <definedName name="CRC">List!$L$2:$L$3</definedName>
     <definedName name="Pin">List!$D$19:$D$30</definedName>
     <definedName name="switch">List!$H$13:$H$22</definedName>
   </definedNames>
@@ -55,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1031" uniqueCount="741">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1033" uniqueCount="743">
   <si>
     <t>SerialPort I/O comd</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -5080,6 +5081,14 @@
   </si>
   <si>
     <t>_savelog</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CRC16_Modbus</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CRC16_Modbus</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -5555,9 +5564,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -5753,23 +5759,138 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="30">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -6251,16 +6372,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="70" t="s">
         <v>525</v>
       </c>
-      <c r="B1" s="72" t="s">
+      <c r="B1" s="71" t="s">
         <v>737</v>
       </c>
-      <c r="C1" s="73" t="s">
+      <c r="C1" s="72" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="75" t="s">
+      <c r="D1" s="74" t="s">
         <v>632</v>
       </c>
       <c r="E1" s="15" t="s">
@@ -6275,16 +6396,16 @@
       <c r="H1" s="15" t="s">
         <v>544</v>
       </c>
-      <c r="I1" s="76" t="s">
+      <c r="I1" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="74" t="s">
+      <c r="J1" s="73" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="21"/>
-      <c r="B2" s="53"/>
+      <c r="B2" s="52"/>
       <c r="C2" s="21"/>
       <c r="D2" s="21"/>
       <c r="E2" s="21"/>
@@ -6299,7 +6420,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="21"/>
-      <c r="B3" s="53"/>
+      <c r="B3" s="52"/>
       <c r="C3" s="21"/>
       <c r="D3" s="21"/>
       <c r="E3" s="21"/>
@@ -6314,7 +6435,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="21"/>
-      <c r="B4" s="53"/>
+      <c r="B4" s="52"/>
       <c r="C4" s="21"/>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
@@ -6329,7 +6450,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="21"/>
-      <c r="B5" s="53"/>
+      <c r="B5" s="52"/>
       <c r="C5" s="21"/>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
@@ -6344,7 +6465,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="21"/>
-      <c r="B6" s="53"/>
+      <c r="B6" s="52"/>
       <c r="C6" s="21"/>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
@@ -6352,14 +6473,14 @@
       <c r="G6" s="21"/>
       <c r="H6" s="21"/>
       <c r="I6" s="21"/>
-      <c r="J6" s="100" t="str">
+      <c r="J6" s="99" t="str">
         <f>IF(G9&lt;&gt;"",VLOOKUP(G9,_Remark,2,0),"")</f>
         <v/>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="21"/>
-      <c r="B7" s="53"/>
+      <c r="B7" s="52"/>
       <c r="C7" s="21"/>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
@@ -6367,14 +6488,14 @@
       <c r="G7" s="21"/>
       <c r="H7" s="21"/>
       <c r="I7" s="21"/>
-      <c r="J7" s="100" t="str">
+      <c r="J7" s="99" t="str">
         <f>IF(G9&lt;&gt;"",VLOOKUP(G9,_Remark,2,0),"")</f>
         <v/>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="21"/>
-      <c r="B8" s="53"/>
+      <c r="B8" s="52"/>
       <c r="C8" s="21"/>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
@@ -6382,14 +6503,14 @@
       <c r="G8" s="21"/>
       <c r="H8" s="21"/>
       <c r="I8" s="21"/>
-      <c r="J8" s="100" t="str">
+      <c r="J8" s="99" t="str">
         <f>IF(G9&lt;&gt;"",VLOOKUP(G9,_Remark,2,0),"")</f>
         <v/>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="21"/>
-      <c r="B9" s="53"/>
+      <c r="B9" s="52"/>
       <c r="C9" s="21"/>
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
@@ -6404,7 +6525,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="21"/>
-      <c r="B10" s="53"/>
+      <c r="B10" s="52"/>
       <c r="C10" s="21"/>
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
@@ -6419,7 +6540,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="21"/>
-      <c r="B11" s="53"/>
+      <c r="B11" s="52"/>
       <c r="C11" s="21"/>
       <c r="D11" s="21"/>
       <c r="E11" s="21"/>
@@ -6434,7 +6555,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="21"/>
-      <c r="B12" s="53"/>
+      <c r="B12" s="52"/>
       <c r="C12" s="21"/>
       <c r="D12" s="21"/>
       <c r="E12" s="21"/>
@@ -6449,7 +6570,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="21"/>
-      <c r="B13" s="53"/>
+      <c r="B13" s="52"/>
       <c r="C13" s="21"/>
       <c r="D13" s="21"/>
       <c r="E13" s="21"/>
@@ -6464,7 +6585,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="21"/>
-      <c r="B14" s="53"/>
+      <c r="B14" s="52"/>
       <c r="C14" s="21"/>
       <c r="D14" s="21"/>
       <c r="E14" s="21"/>
@@ -6479,7 +6600,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="21"/>
-      <c r="B15" s="53"/>
+      <c r="B15" s="52"/>
       <c r="C15" s="21"/>
       <c r="D15" s="21"/>
       <c r="E15" s="21"/>
@@ -6494,7 +6615,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="21"/>
-      <c r="B16" s="53"/>
+      <c r="B16" s="52"/>
       <c r="C16" s="21"/>
       <c r="D16" s="21"/>
       <c r="E16" s="21"/>
@@ -6509,7 +6630,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="21"/>
-      <c r="B17" s="53"/>
+      <c r="B17" s="52"/>
       <c r="C17" s="21"/>
       <c r="D17" s="21"/>
       <c r="E17" s="21"/>
@@ -6524,7 +6645,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="21"/>
-      <c r="B18" s="53"/>
+      <c r="B18" s="52"/>
       <c r="C18" s="21"/>
       <c r="D18" s="21"/>
       <c r="E18" s="21"/>
@@ -6539,7 +6660,7 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="21"/>
-      <c r="B19" s="53"/>
+      <c r="B19" s="52"/>
       <c r="C19" s="21"/>
       <c r="D19" s="21"/>
       <c r="E19" s="21"/>
@@ -6554,7 +6675,7 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="21"/>
-      <c r="B20" s="53"/>
+      <c r="B20" s="52"/>
       <c r="C20" s="21"/>
       <c r="D20" s="21"/>
       <c r="E20" s="21"/>
@@ -6569,7 +6690,7 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="21"/>
-      <c r="B21" s="53"/>
+      <c r="B21" s="52"/>
       <c r="C21" s="21"/>
       <c r="D21" s="21"/>
       <c r="E21" s="21"/>
@@ -6584,7 +6705,7 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="21"/>
-      <c r="B22" s="53"/>
+      <c r="B22" s="52"/>
       <c r="C22" s="21"/>
       <c r="D22" s="21"/>
       <c r="E22" s="21"/>
@@ -6599,7 +6720,7 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="21"/>
-      <c r="B23" s="53"/>
+      <c r="B23" s="52"/>
       <c r="C23" s="21"/>
       <c r="D23" s="21"/>
       <c r="E23" s="21"/>
@@ -6614,7 +6735,7 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="21"/>
-      <c r="B24" s="53"/>
+      <c r="B24" s="52"/>
       <c r="C24" s="21"/>
       <c r="D24" s="21"/>
       <c r="E24" s="21"/>
@@ -6629,7 +6750,7 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="21"/>
-      <c r="B25" s="53"/>
+      <c r="B25" s="52"/>
       <c r="C25" s="21"/>
       <c r="D25" s="21"/>
       <c r="E25" s="21"/>
@@ -6644,7 +6765,7 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="21"/>
-      <c r="B26" s="53"/>
+      <c r="B26" s="52"/>
       <c r="C26" s="21"/>
       <c r="D26" s="21"/>
       <c r="E26" s="21"/>
@@ -6659,7 +6780,7 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="21"/>
-      <c r="B27" s="53"/>
+      <c r="B27" s="52"/>
       <c r="C27" s="21"/>
       <c r="D27" s="21"/>
       <c r="E27" s="21"/>
@@ -6674,7 +6795,7 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="21"/>
-      <c r="B28" s="53"/>
+      <c r="B28" s="52"/>
       <c r="C28" s="21"/>
       <c r="D28" s="21"/>
       <c r="E28" s="21"/>
@@ -6689,7 +6810,7 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="21"/>
-      <c r="B29" s="53"/>
+      <c r="B29" s="52"/>
       <c r="C29" s="21"/>
       <c r="D29" s="21"/>
       <c r="E29" s="21"/>
@@ -6704,7 +6825,7 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="21"/>
-      <c r="B30" s="53"/>
+      <c r="B30" s="52"/>
       <c r="C30" s="21"/>
       <c r="D30" s="21"/>
       <c r="E30" s="21"/>
@@ -6719,7 +6840,7 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="21"/>
-      <c r="B31" s="53"/>
+      <c r="B31" s="52"/>
       <c r="C31" s="21"/>
       <c r="D31" s="21"/>
       <c r="E31" s="21"/>
@@ -6736,56 +6857,56 @@
   <dataConsolidate/>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B2:B31">
-    <cfRule type="expression" dxfId="13" priority="14">
+    <cfRule type="expression" dxfId="14" priority="14">
       <formula>IF(OR(A2="",A2="_Funckey",A2="RC Key",A2="_FuelDisplay",A2="_WaterTemp",A2="_IO_Output",A2="_IO_Input",A2="_Keyword"),0,1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C31">
-    <cfRule type="expression" dxfId="12" priority="13">
+    <cfRule type="expression" dxfId="13" priority="13">
       <formula>IF(OR(A2="",A2="_FuncKey",A2="RC Key"),0,1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D31">
-    <cfRule type="expression" dxfId="11" priority="12">
+    <cfRule type="expression" dxfId="12" priority="12">
       <formula>IF(OR(A2="",A2="_HEX", A2="_ascii",A2="_FuncKey",A2="_Pin"),0,1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E31">
-    <cfRule type="expression" dxfId="10" priority="3">
+    <cfRule type="expression" dxfId="11" priority="3">
       <formula>IF(AND(A2="_dektec",H2="_stop"),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="11">
+    <cfRule type="expression" dxfId="10" priority="11">
       <formula>IF(OR(A2="",A2="_K_ABS",A2="_K_OBD", A2="_quantum",A2="_astro",A2="_dektec"),0,1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F31">
-    <cfRule type="expression" dxfId="8" priority="2">
+    <cfRule type="expression" dxfId="9" priority="2">
       <formula>IF(AND(A2="_dektec",H2="_stop"),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="10">
+    <cfRule type="expression" dxfId="8" priority="10">
       <formula>IF(OR(A2="",A2="_quantum",A2="_dektec"),0,1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G31">
-    <cfRule type="expression" dxfId="6" priority="1">
+    <cfRule type="expression" dxfId="7" priority="1">
       <formula>IF(AND(A2="_dektec",H2="_stop"),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="9">
+    <cfRule type="expression" dxfId="6" priority="9">
       <formula>IF(OR(A2="_K_SEND",A2="_K_CLEAR",A2="_shot",A2="_rc_start",A2="_rc_stop",A2="_cmd",A2="RC Key",A2="_FuelDisplay",A2="_WaterTemp",A2="_IO_Output",A2="_IO_Input",A2="_quantum",A2="_astro"),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H31">
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="5" priority="5">
       <formula>IF(AND(A2="_ascii",G2="_clear"),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="6">
+    <cfRule type="expression" dxfId="4" priority="6">
       <formula>IF(AND(A2="_ascii",G2="_save"),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="8">
-      <formula>IF(OR(A2="",A2="_ascii",A2="_FuncKey",A2="_cmd",A2="_dektec"),0,1)</formula>
+    <cfRule type="expression" dxfId="3" priority="8">
+      <formula>IF(OR(A2="",A2="_ascii",A2="_HEX",A2="_FuncKey",A2="_cmd",A2="_dektec"),0,1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="7">
+  <dataValidations count="8">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="A1"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A31">
       <formula1>Cmd_list</formula1>
@@ -6796,14 +6917,17 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G31">
       <formula1>IF(OR(A2="_HEX",A2="_ascii"),_log,IF(E2="Front tyre",_ABS_front,IF(E2="Rare tyre",_ABS_rare,IF(E2="Other",_ABS_other,IF(A2="_Temperature",_temp,IF(OR(A2="_Pin",A2="_keyword"),_P_cmd,""))))))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H31">
-      <formula1>IF(A2="_ascii",_NEL,IF(A2="_FuncKey",_NEL,IF(A2="_cmd",switch,IF(A2="_dektec",_dektec,""))))</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H31">
+      <formula1>IF(A3="_ascii",_NEL,IF(A3="_FuncKey",_NEL,IF(A3="_cmd",switch,IF(A3="_dektec",_dektec,""))))</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B31">
       <formula1>IF(OR(A2="_keyword",A2="_FuncKey"),_no,"")</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E31">
       <formula1>IF(A2="_K_ABS",_K_ABS,IF(A2="_K_OBD",_K_OBD,""))</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2">
+      <formula1>IF(A2="_ascii",_NEL,IF(A2="_FuncKey",_NEL,IF(A2="_cmd",switch,IF(A2="_HEX",CRC,""))))</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6817,7 +6941,7 @@
   <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -6830,16 +6954,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="76" t="s">
         <v>525</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>543</v>
       </c>
-      <c r="C1" s="70" t="s">
+      <c r="C1" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="101" t="s">
+      <c r="D1" s="100" t="s">
         <v>19</v>
       </c>
       <c r="E1" s="13" t="s">
@@ -6872,7 +6996,9 @@
         <v>523</v>
       </c>
       <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
+      <c r="L2" s="105" t="s">
+        <v>741</v>
+      </c>
     </row>
     <row r="3" spans="1:12" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
@@ -6881,14 +7007,14 @@
       <c r="D3" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="G3" s="68" t="s">
+      <c r="G3" s="67" t="s">
         <v>524</v>
       </c>
       <c r="H3" s="22" t="s">
         <v>48</v>
       </c>
       <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
+      <c r="L3" s="24"/>
     </row>
     <row r="4" spans="1:12" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -6904,7 +7030,7 @@
       <c r="L4" s="19"/>
     </row>
     <row r="5" spans="1:12" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="52" t="s">
+      <c r="A5" s="51" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="23" t="s">
@@ -6936,7 +7062,7 @@
       </c>
     </row>
     <row r="8" spans="1:12" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="51" t="s">
+      <c r="A8" s="50" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="24" t="s">
@@ -6954,7 +7080,7 @@
       </c>
     </row>
     <row r="10" spans="1:12" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="36" t="s">
+      <c r="A10" s="35" t="s">
         <v>545</v>
       </c>
       <c r="C10" s="19"/>
@@ -6974,7 +7100,7 @@
       </c>
     </row>
     <row r="12" spans="1:12" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="35" t="s">
+      <c r="A12" s="34" t="s">
         <v>733</v>
       </c>
       <c r="C12" s="19"/>
@@ -6984,12 +7110,12 @@
       </c>
     </row>
     <row r="13" spans="1:12" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="36" t="s">
+      <c r="A13" s="35" t="s">
         <v>546</v>
       </c>
       <c r="C13" s="19"/>
       <c r="D13" s="19"/>
-      <c r="H13" s="54" t="s">
+      <c r="H13" s="53" t="s">
         <v>15</v>
       </c>
       <c r="K13" s="23">
@@ -6997,13 +7123,13 @@
       </c>
     </row>
     <row r="14" spans="1:12" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="36" t="s">
+      <c r="A14" s="35" t="s">
         <v>597</v>
       </c>
       <c r="C14" s="19"/>
       <c r="D14" s="19"/>
       <c r="E14" s="19"/>
-      <c r="H14" s="55" t="s">
+      <c r="H14" s="54" t="s">
         <v>2</v>
       </c>
       <c r="K14" s="23">
@@ -7011,13 +7137,13 @@
       </c>
     </row>
     <row r="15" spans="1:12" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="36" t="s">
+      <c r="A15" s="35" t="s">
         <v>598</v>
       </c>
       <c r="C15" s="19"/>
       <c r="D15" s="19"/>
       <c r="E15" s="19"/>
-      <c r="H15" s="55" t="s">
+      <c r="H15" s="54" t="s">
         <v>11</v>
       </c>
       <c r="K15" s="23">
@@ -7031,7 +7157,7 @@
       <c r="C16" s="19"/>
       <c r="D16" s="19"/>
       <c r="E16" s="19"/>
-      <c r="H16" s="55" t="s">
+      <c r="H16" s="54" t="s">
         <v>12</v>
       </c>
       <c r="K16" s="23">
@@ -7039,13 +7165,13 @@
       </c>
     </row>
     <row r="17" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="36" t="s">
+      <c r="A17" s="35" t="s">
         <v>601</v>
       </c>
       <c r="C17" s="19"/>
       <c r="D17" s="19"/>
       <c r="E17" s="19"/>
-      <c r="H17" s="55" t="s">
+      <c r="H17" s="54" t="s">
         <v>16</v>
       </c>
       <c r="K17" s="23">
@@ -7059,7 +7185,7 @@
       <c r="C18" s="19"/>
       <c r="D18" s="19"/>
       <c r="E18" s="19"/>
-      <c r="H18" s="55" t="s">
+      <c r="H18" s="54" t="s">
         <v>13</v>
       </c>
       <c r="K18" s="23">
@@ -7070,14 +7196,14 @@
       <c r="A19" s="10" t="s">
         <v>633</v>
       </c>
-      <c r="D19" s="48" t="s">
+      <c r="D19" s="47" t="s">
         <v>530</v>
       </c>
       <c r="E19" s="19"/>
-      <c r="G19" s="41" t="s">
+      <c r="G19" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="H19" s="55" t="s">
+      <c r="H19" s="54" t="s">
         <v>636</v>
       </c>
       <c r="K19" s="23">
@@ -7085,19 +7211,19 @@
       </c>
     </row>
     <row r="20" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="95" t="s">
+      <c r="A20" s="94" t="s">
         <v>600</v>
       </c>
       <c r="B20" s="22">
         <v>1</v>
       </c>
-      <c r="D20" s="49" t="s">
+      <c r="D20" s="48" t="s">
         <v>531</v>
       </c>
-      <c r="G20" s="40" t="s">
+      <c r="G20" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="H20" s="55" t="s">
+      <c r="H20" s="54" t="s">
         <v>17</v>
       </c>
       <c r="K20" s="23">
@@ -7105,17 +7231,17 @@
       </c>
     </row>
     <row r="21" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="36"/>
+      <c r="A21" s="35"/>
       <c r="B21" s="23">
         <v>2</v>
       </c>
-      <c r="D21" s="49" t="s">
+      <c r="D21" s="48" t="s">
         <v>532</v>
       </c>
-      <c r="G21" s="40" t="s">
+      <c r="G21" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="H21" s="55" t="s">
+      <c r="H21" s="54" t="s">
         <v>637</v>
       </c>
       <c r="K21" s="23">
@@ -7123,17 +7249,17 @@
       </c>
     </row>
     <row r="22" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="79"/>
-      <c r="B22" s="64">
+      <c r="A22" s="78"/>
+      <c r="B22" s="63">
         <v>3</v>
       </c>
-      <c r="D22" s="49" t="s">
+      <c r="D22" s="48" t="s">
         <v>533</v>
       </c>
-      <c r="G22" s="40" t="s">
+      <c r="G22" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="H22" s="56" t="s">
+      <c r="H22" s="55" t="s">
         <v>14</v>
       </c>
       <c r="K22" s="23">
@@ -7141,18 +7267,18 @@
       </c>
     </row>
     <row r="23" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="79"/>
-      <c r="B23" s="64">
+      <c r="A23" s="78"/>
+      <c r="B23" s="63">
         <v>4</v>
       </c>
       <c r="C23"/>
-      <c r="D23" s="49" t="s">
+      <c r="D23" s="48" t="s">
         <v>534</v>
       </c>
-      <c r="G23" s="40" t="s">
+      <c r="G23" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="H23" s="40"/>
+      <c r="H23" s="39"/>
       <c r="K23" s="24">
         <v>50</v>
       </c>
@@ -7163,10 +7289,10 @@
         <v>5</v>
       </c>
       <c r="C24"/>
-      <c r="D24" s="49" t="s">
+      <c r="D24" s="48" t="s">
         <v>535</v>
       </c>
-      <c r="G24" s="40" t="s">
+      <c r="G24" s="39" t="s">
         <v>34</v>
       </c>
       <c r="H24" s="3"/>
@@ -7177,7 +7303,7 @@
         <v>6</v>
       </c>
       <c r="C25"/>
-      <c r="D25" s="49" t="s">
+      <c r="D25" s="48" t="s">
         <v>536</v>
       </c>
       <c r="G25" s="23" t="s">
@@ -7191,7 +7317,7 @@
         <v>7</v>
       </c>
       <c r="C26"/>
-      <c r="D26" s="49" t="s">
+      <c r="D26" s="48" t="s">
         <v>537</v>
       </c>
       <c r="G26" s="24" t="s">
@@ -7204,7 +7330,7 @@
         <v>8</v>
       </c>
       <c r="C27"/>
-      <c r="D27" s="49" t="s">
+      <c r="D27" s="48" t="s">
         <v>538</v>
       </c>
     </row>
@@ -7214,7 +7340,7 @@
         <v>9</v>
       </c>
       <c r="C28"/>
-      <c r="D28" s="49" t="s">
+      <c r="D28" s="48" t="s">
         <v>539</v>
       </c>
     </row>
@@ -7224,14 +7350,14 @@
         <v>10</v>
       </c>
       <c r="C29"/>
-      <c r="D29" s="49" t="s">
+      <c r="D29" s="48" t="s">
         <v>540</v>
       </c>
     </row>
     <row r="30" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30"/>
       <c r="C30"/>
-      <c r="D30" s="50" t="s">
+      <c r="D30" s="49" t="s">
         <v>541</v>
       </c>
     </row>
@@ -7242,6 +7368,11 @@
   </sheetData>
   <sheetProtection autoFilter="0"/>
   <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="L2">
+    <cfRule type="expression" dxfId="2" priority="1">
+      <formula>IF(OR(A2="_ascii",A2="_HEX",A2="_cmd",A2="_dektec"),0,1)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="2">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="A1"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I27">
@@ -9300,7 +9431,7 @@
       <c r="B13" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="C13" s="46" t="s">
+      <c r="C13" s="45" t="s">
         <v>390</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -9315,7 +9446,7 @@
       <c r="I13" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="J13" s="47" t="s">
+      <c r="J13" s="46" t="s">
         <v>611</v>
       </c>
       <c r="K13" s="1" t="s">
@@ -9334,7 +9465,7 @@
       <c r="B14" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="C14" s="46" t="s">
+      <c r="C14" s="45" t="s">
         <v>603</v>
       </c>
       <c r="D14" s="1" t="s">
@@ -9347,7 +9478,7 @@
       <c r="I14" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="J14" s="47" t="s">
+      <c r="J14" s="46" t="s">
         <v>612</v>
       </c>
       <c r="K14" s="1" t="s">
@@ -9366,7 +9497,7 @@
       <c r="B15" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="C15" s="46" t="s">
+      <c r="C15" s="45" t="s">
         <v>604</v>
       </c>
       <c r="D15" s="1" t="s">
@@ -9379,7 +9510,7 @@
       <c r="I15" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="J15" s="47" t="s">
+      <c r="J15" s="46" t="s">
         <v>385</v>
       </c>
       <c r="K15" s="1" t="s">
@@ -9398,7 +9529,7 @@
       <c r="B16" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="C16" s="46" t="s">
+      <c r="C16" s="45" t="s">
         <v>605</v>
       </c>
       <c r="D16" s="1" t="s">
@@ -9411,7 +9542,7 @@
       <c r="I16" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="J16" s="47" t="s">
+      <c r="J16" s="46" t="s">
         <v>613</v>
       </c>
       <c r="K16" s="1" t="s">
@@ -9432,7 +9563,7 @@
       <c r="B17" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="C17" s="46" t="s">
+      <c r="C17" s="45" t="s">
         <v>606</v>
       </c>
       <c r="D17" s="1" t="s">
@@ -9445,7 +9576,7 @@
       <c r="I17" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="J17" s="47" t="s">
+      <c r="J17" s="46" t="s">
         <v>614</v>
       </c>
       <c r="K17" s="1" t="s">
@@ -9464,7 +9595,7 @@
       <c r="B18" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="C18" s="46" t="s">
+      <c r="C18" s="45" t="s">
         <v>607</v>
       </c>
       <c r="D18" s="1" t="s">
@@ -9477,7 +9608,7 @@
       <c r="I18" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="J18" s="47" t="s">
+      <c r="J18" s="46" t="s">
         <v>615</v>
       </c>
       <c r="K18" s="1" t="s">
@@ -9496,7 +9627,7 @@
       <c r="B19" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="C19" s="46" t="s">
+      <c r="C19" s="45" t="s">
         <v>608</v>
       </c>
       <c r="D19" s="1" t="s">
@@ -9509,7 +9640,7 @@
       <c r="I19" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="J19" s="47" t="s">
+      <c r="J19" s="46" t="s">
         <v>616</v>
       </c>
       <c r="K19" s="1" t="s">
@@ -9528,7 +9659,7 @@
       <c r="B20" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="C20" s="46" t="s">
+      <c r="C20" s="45" t="s">
         <v>609</v>
       </c>
       <c r="D20" s="1" t="s">
@@ -9541,7 +9672,7 @@
       <c r="I20" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="J20" s="47" t="s">
+      <c r="J20" s="46" t="s">
         <v>389</v>
       </c>
       <c r="K20" s="1" t="s">
@@ -9562,7 +9693,7 @@
       <c r="B21" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="C21" s="46" t="s">
+      <c r="C21" s="45" t="s">
         <v>610</v>
       </c>
       <c r="D21" s="1" t="s">
@@ -9577,7 +9708,7 @@
       <c r="I21" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="J21" s="47" t="s">
+      <c r="J21" s="46" t="s">
         <v>391</v>
       </c>
       <c r="K21" s="1" t="s">
@@ -9596,7 +9727,7 @@
       <c r="B22" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="C22" s="46" t="s">
+      <c r="C22" s="45" t="s">
         <v>384</v>
       </c>
       <c r="D22" s="1" t="s">
@@ -9609,7 +9740,7 @@
       <c r="I22" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="J22" s="47" t="s">
+      <c r="J22" s="46" t="s">
         <v>392</v>
       </c>
       <c r="K22" s="1" t="s">
@@ -9628,7 +9759,7 @@
       <c r="B23" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="C23" s="46" t="s">
+      <c r="C23" s="45" t="s">
         <v>387</v>
       </c>
       <c r="D23" s="1" t="s">
@@ -9641,7 +9772,7 @@
       <c r="I23" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="J23" s="47" t="s">
+      <c r="J23" s="46" t="s">
         <v>393</v>
       </c>
       <c r="K23" s="1" t="s">
@@ -9660,7 +9791,7 @@
       <c r="B24" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="C24" s="46" t="s">
+      <c r="C24" s="45" t="s">
         <v>386</v>
       </c>
       <c r="D24" s="1" t="s">
@@ -9673,7 +9804,7 @@
       <c r="I24" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="J24" s="47" t="s">
+      <c r="J24" s="46" t="s">
         <v>394</v>
       </c>
       <c r="K24" s="1" t="s">
@@ -9692,7 +9823,7 @@
       <c r="B25" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="C25" s="46" t="s">
+      <c r="C25" s="45" t="s">
         <v>388</v>
       </c>
       <c r="D25" s="1" t="s">
@@ -9705,7 +9836,7 @@
       <c r="I25" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="J25" s="47" t="s">
+      <c r="J25" s="46" t="s">
         <v>395</v>
       </c>
       <c r="K25" s="1" t="s">
@@ -9724,7 +9855,7 @@
       <c r="B26" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="C26" s="46" t="s">
+      <c r="C26" s="45" t="s">
         <v>396</v>
       </c>
       <c r="D26" s="1" t="s">
@@ -9737,7 +9868,7 @@
       <c r="I26" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="J26" s="47" t="s">
+      <c r="J26" s="46" t="s">
         <v>397</v>
       </c>
       <c r="K26" s="1" t="s">
@@ -9763,7 +9894,7 @@
       <c r="I27" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="J27" s="47" t="s">
+      <c r="J27" s="46" t="s">
         <v>617</v>
       </c>
       <c r="K27" s="1" t="s">
@@ -9789,7 +9920,7 @@
       <c r="I28" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="J28" s="47" t="s">
+      <c r="J28" s="46" t="s">
         <v>618</v>
       </c>
       <c r="K28" s="1" t="s">
@@ -9817,7 +9948,7 @@
       <c r="I29" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="J29" s="47" t="s">
+      <c r="J29" s="46" t="s">
         <v>619</v>
       </c>
       <c r="K29" s="1" t="s">
@@ -9843,7 +9974,7 @@
       <c r="I30" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="J30" s="47" t="s">
+      <c r="J30" s="46" t="s">
         <v>398</v>
       </c>
       <c r="K30" s="1" t="s">
@@ -9869,7 +10000,7 @@
       <c r="I31" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="J31" s="47" t="s">
+      <c r="J31" s="46" t="s">
         <v>399</v>
       </c>
       <c r="K31" s="1" t="s">
@@ -9895,7 +10026,7 @@
       <c r="I32" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="J32" s="47" t="s">
+      <c r="J32" s="46" t="s">
         <v>400</v>
       </c>
       <c r="K32" s="1" t="s">
@@ -9921,7 +10052,7 @@
       <c r="I33" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="J33" s="47" t="s">
+      <c r="J33" s="46" t="s">
         <v>620</v>
       </c>
       <c r="K33" s="1" t="s">
@@ -9947,7 +10078,7 @@
       <c r="I34" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="J34" s="47" t="s">
+      <c r="J34" s="46" t="s">
         <v>621</v>
       </c>
       <c r="K34" s="1" t="s">
@@ -9973,7 +10104,7 @@
       <c r="I35" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="J35" s="47" t="s">
+      <c r="J35" s="46" t="s">
         <v>401</v>
       </c>
       <c r="K35" s="1" t="s">
@@ -9999,7 +10130,7 @@
       <c r="I36" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="J36" s="47" t="s">
+      <c r="J36" s="46" t="s">
         <v>622</v>
       </c>
       <c r="K36" s="1" t="s">
@@ -10027,7 +10158,7 @@
       <c r="I37" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="J37" s="47" t="s">
+      <c r="J37" s="46" t="s">
         <v>402</v>
       </c>
       <c r="K37" s="1" t="s">
@@ -10053,7 +10184,7 @@
       <c r="I38" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="J38" s="47" t="s">
+      <c r="J38" s="46" t="s">
         <v>403</v>
       </c>
       <c r="K38" s="1" t="s">
@@ -10079,7 +10210,7 @@
       <c r="I39" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="J39" s="47" t="s">
+      <c r="J39" s="46" t="s">
         <v>404</v>
       </c>
       <c r="K39" s="1" t="s">
@@ -10105,7 +10236,7 @@
       <c r="I40" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="J40" s="47" t="s">
+      <c r="J40" s="46" t="s">
         <v>405</v>
       </c>
       <c r="K40" s="1" t="s">
@@ -10131,7 +10262,7 @@
       <c r="I41" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="J41" s="47" t="s">
+      <c r="J41" s="46" t="s">
         <v>406</v>
       </c>
       <c r="K41" s="1" t="s">
@@ -10157,7 +10288,7 @@
       <c r="I42" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="J42" s="47" t="s">
+      <c r="J42" s="46" t="s">
         <v>623</v>
       </c>
       <c r="K42" s="1" t="s">
@@ -10183,7 +10314,7 @@
       <c r="I43" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="J43" s="47" t="s">
+      <c r="J43" s="46" t="s">
         <v>624</v>
       </c>
       <c r="K43" s="1" t="s">
@@ -10209,7 +10340,7 @@
       <c r="I44" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="J44" s="47" t="s">
+      <c r="J44" s="46" t="s">
         <v>625</v>
       </c>
       <c r="K44" s="1" t="s">
@@ -10237,7 +10368,7 @@
       <c r="I45" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="J45" s="47" t="s">
+      <c r="J45" s="46" t="s">
         <v>407</v>
       </c>
       <c r="K45" s="1" t="s">
@@ -10263,7 +10394,7 @@
       <c r="I46" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="J46" s="47" t="s">
+      <c r="J46" s="46" t="s">
         <v>408</v>
       </c>
       <c r="K46" s="1" t="s">
@@ -10289,7 +10420,7 @@
       <c r="I47" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="J47" s="47" t="s">
+      <c r="J47" s="46" t="s">
         <v>409</v>
       </c>
       <c r="K47" s="1" t="s">
@@ -10315,7 +10446,7 @@
       <c r="I48" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="J48" s="47" t="s">
+      <c r="J48" s="46" t="s">
         <v>410</v>
       </c>
       <c r="K48" s="1" t="s">
@@ -10341,7 +10472,7 @@
       <c r="I49" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="J49" s="47" t="s">
+      <c r="J49" s="46" t="s">
         <v>411</v>
       </c>
       <c r="K49" s="1" t="s">
@@ -10367,7 +10498,7 @@
       <c r="I50" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="J50" s="47" t="s">
+      <c r="J50" s="46" t="s">
         <v>412</v>
       </c>
       <c r="K50" s="1" t="s">
@@ -10393,7 +10524,7 @@
       <c r="I51" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="J51" s="47" t="s">
+      <c r="J51" s="46" t="s">
         <v>626</v>
       </c>
       <c r="K51" s="1" t="s">
@@ -10419,7 +10550,7 @@
       <c r="I52" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="J52" s="47" t="s">
+      <c r="J52" s="46" t="s">
         <v>627</v>
       </c>
       <c r="K52" s="1" t="s">
@@ -10447,7 +10578,7 @@
       <c r="I53" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="J53" s="47" t="s">
+      <c r="J53" s="46" t="s">
         <v>413</v>
       </c>
       <c r="K53" s="1" t="s">
@@ -10473,7 +10604,7 @@
       <c r="I54" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="J54" s="47" t="s">
+      <c r="J54" s="46" t="s">
         <v>628</v>
       </c>
       <c r="K54" s="1" t="s">
@@ -10499,7 +10630,7 @@
       <c r="I55" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="J55" s="47" t="s">
+      <c r="J55" s="46" t="s">
         <v>414</v>
       </c>
       <c r="K55" s="1" t="s">
@@ -10525,7 +10656,7 @@
       <c r="I56" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="J56" s="47" t="s">
+      <c r="J56" s="46" t="s">
         <v>629</v>
       </c>
       <c r="K56" s="1" t="s">
@@ -10551,7 +10682,7 @@
       <c r="I57" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="J57" s="47" t="s">
+      <c r="J57" s="46" t="s">
         <v>415</v>
       </c>
       <c r="K57" s="1" t="s">
@@ -10577,7 +10708,7 @@
       <c r="I58" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="J58" s="47" t="s">
+      <c r="J58" s="46" t="s">
         <v>416</v>
       </c>
       <c r="K58" s="1" t="s">
@@ -10603,7 +10734,7 @@
       <c r="I59" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="J59" s="47" t="s">
+      <c r="J59" s="46" t="s">
         <v>630</v>
       </c>
       <c r="K59" s="1" t="s">
@@ -10629,7 +10760,7 @@
       <c r="I60" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="J60" s="47" t="s">
+      <c r="J60" s="46" t="s">
         <v>417</v>
       </c>
       <c r="K60" s="1" t="s">
@@ -10657,7 +10788,7 @@
       <c r="I61" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="J61" s="47" t="s">
+      <c r="J61" s="46" t="s">
         <v>631</v>
       </c>
       <c r="K61" s="1" t="s">
@@ -10683,7 +10814,7 @@
       <c r="I62" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="J62" s="47" t="s">
+      <c r="J62" s="46" t="s">
         <v>631</v>
       </c>
       <c r="K62" s="1" t="s">
@@ -10795,7 +10926,7 @@
       <c r="C6" s="27" t="s">
         <v>432</v>
       </c>
-      <c r="K6" s="99" t="s">
+      <c r="K6" s="98" t="s">
         <v>729</v>
       </c>
     </row>
@@ -11715,7 +11846,7 @@
       <c r="B121" s="22">
         <v>-20</v>
       </c>
-      <c r="C121" s="96" t="s">
+      <c r="C121" s="95" t="s">
         <v>731</v>
       </c>
     </row>
@@ -11723,7 +11854,7 @@
       <c r="B122" s="23">
         <v>-15</v>
       </c>
-      <c r="C122" s="97" t="s">
+      <c r="C122" s="96" t="s">
         <v>730</v>
       </c>
     </row>
@@ -11731,7 +11862,7 @@
       <c r="B123" s="23">
         <v>-10</v>
       </c>
-      <c r="C123" s="97" t="s">
+      <c r="C123" s="96" t="s">
         <v>717</v>
       </c>
     </row>
@@ -11739,7 +11870,7 @@
       <c r="B124" s="23">
         <v>-5</v>
       </c>
-      <c r="C124" s="97" t="s">
+      <c r="C124" s="96" t="s">
         <v>718</v>
       </c>
     </row>
@@ -11747,7 +11878,7 @@
       <c r="B125" s="23">
         <v>0</v>
       </c>
-      <c r="C125" s="97" t="s">
+      <c r="C125" s="96" t="s">
         <v>719</v>
       </c>
     </row>
@@ -11755,7 +11886,7 @@
       <c r="B126" s="23">
         <v>5</v>
       </c>
-      <c r="C126" s="97" t="s">
+      <c r="C126" s="96" t="s">
         <v>716</v>
       </c>
     </row>
@@ -11763,7 +11894,7 @@
       <c r="B127" s="23">
         <v>10</v>
       </c>
-      <c r="C127" s="97" t="s">
+      <c r="C127" s="96" t="s">
         <v>720</v>
       </c>
     </row>
@@ -11771,7 +11902,7 @@
       <c r="B128" s="23">
         <v>15</v>
       </c>
-      <c r="C128" s="97" t="s">
+      <c r="C128" s="96" t="s">
         <v>721</v>
       </c>
     </row>
@@ -11779,7 +11910,7 @@
       <c r="B129" s="23">
         <v>20</v>
       </c>
-      <c r="C129" s="97" t="s">
+      <c r="C129" s="96" t="s">
         <v>722</v>
       </c>
     </row>
@@ -11787,7 +11918,7 @@
       <c r="B130" s="23">
         <v>25</v>
       </c>
-      <c r="C130" s="97" t="s">
+      <c r="C130" s="96" t="s">
         <v>723</v>
       </c>
     </row>
@@ -11795,7 +11926,7 @@
       <c r="B131" s="23">
         <v>30</v>
       </c>
-      <c r="C131" s="97" t="s">
+      <c r="C131" s="96" t="s">
         <v>724</v>
       </c>
     </row>
@@ -11803,7 +11934,7 @@
       <c r="B132" s="23">
         <v>35</v>
       </c>
-      <c r="C132" s="97" t="s">
+      <c r="C132" s="96" t="s">
         <v>725</v>
       </c>
     </row>
@@ -11811,7 +11942,7 @@
       <c r="B133" s="23">
         <v>40</v>
       </c>
-      <c r="C133" s="97" t="s">
+      <c r="C133" s="96" t="s">
         <v>726</v>
       </c>
     </row>
@@ -11819,7 +11950,7 @@
       <c r="B134" s="23">
         <v>45</v>
       </c>
-      <c r="C134" s="97" t="s">
+      <c r="C134" s="96" t="s">
         <v>727</v>
       </c>
     </row>
@@ -11827,7 +11958,7 @@
       <c r="B135" s="24">
         <v>50</v>
       </c>
-      <c r="C135" s="98" t="s">
+      <c r="C135" s="97" t="s">
         <v>728</v>
       </c>
     </row>
@@ -11844,8 +11975,8 @@
   <dimension ref="A1:S43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I37" sqref="I37"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -11863,16 +11994,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="70" t="s">
         <v>525</v>
       </c>
-      <c r="B1" s="72" t="s">
+      <c r="B1" s="71" t="s">
         <v>543</v>
       </c>
-      <c r="C1" s="73" t="s">
+      <c r="C1" s="72" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="75" t="s">
+      <c r="D1" s="74" t="s">
         <v>632</v>
       </c>
       <c r="E1" s="15" t="s">
@@ -11887,133 +12018,135 @@
       <c r="H1" s="15" t="s">
         <v>544</v>
       </c>
-      <c r="I1" s="76" t="s">
+      <c r="I1" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="74" t="s">
+      <c r="J1" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="82"/>
-      <c r="P1" s="83"/>
-      <c r="Q1" s="45"/>
-      <c r="R1" s="45"/>
-      <c r="S1" s="45"/>
+      <c r="O1" s="81"/>
+      <c r="P1" s="82"/>
+      <c r="Q1" s="44"/>
+      <c r="R1" s="44"/>
+      <c r="S1" s="44"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="84" t="s">
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="83" t="s">
         <v>711</v>
       </c>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="60"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="36" t="s">
+        <v>742</v>
+      </c>
+      <c r="I2" s="58"/>
+      <c r="J2" s="59"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="84" t="s">
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="83" t="s">
         <v>712</v>
       </c>
-      <c r="E3" s="58" t="s">
+      <c r="E3" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="58" t="s">
+      <c r="F3" s="57" t="s">
         <v>419</v>
       </c>
-      <c r="G3" s="59"/>
-      <c r="H3" s="37" t="s">
+      <c r="G3" s="58"/>
+      <c r="H3" s="36" t="s">
         <v>736</v>
       </c>
-      <c r="I3" s="59"/>
-      <c r="J3" s="60"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="59"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="84" t="s">
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="83" t="s">
         <v>713</v>
       </c>
-      <c r="E4" s="61"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="85" t="s">
+      <c r="E4" s="60"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="84" t="s">
         <v>27</v>
       </c>
       <c r="H4" s="12"/>
       <c r="I4" s="18"/>
-      <c r="J4" s="34"/>
+      <c r="J4" s="33"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="59"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="86"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="86"/>
-      <c r="H5" s="86"/>
-      <c r="I5" s="59"/>
-      <c r="J5" s="60"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="85"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="85"/>
+      <c r="H5" s="85"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="59"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="61"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="52" t="s">
+      <c r="B6" s="60"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="61"/>
+      <c r="F6" s="60"/>
       <c r="G6" s="18"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="61"/>
-      <c r="J6" s="34"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="33"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="63"/>
-      <c r="C7" s="63"/>
-      <c r="D7" s="63"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
       <c r="E7" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="63"/>
+      <c r="F7" s="62"/>
       <c r="G7" s="19"/>
-      <c r="H7" s="63"/>
-      <c r="I7" s="63"/>
-      <c r="J7" s="64"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="63"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="63"/>
-      <c r="C8" s="63"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="63"/>
-      <c r="G8" s="63"/>
-      <c r="H8" s="63"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="62"/>
       <c r="I8" s="19"/>
-      <c r="J8" s="64" t="s">
+      <c r="J8" s="63" t="s">
         <v>420</v>
       </c>
     </row>
@@ -12021,15 +12154,15 @@
       <c r="A9" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="65"/>
-      <c r="C9" s="65"/>
-      <c r="D9" s="65"/>
-      <c r="E9" s="65"/>
-      <c r="F9" s="65"/>
-      <c r="G9" s="65"/>
-      <c r="H9" s="65"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="66" t="s">
+      <c r="B9" s="64"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="65" t="s">
         <v>421</v>
       </c>
     </row>
@@ -12037,131 +12170,131 @@
       <c r="A10" s="19" t="s">
         <v>526</v>
       </c>
-      <c r="B10" s="61"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="61"/>
-      <c r="G10" s="67" t="s">
+      <c r="B10" s="60"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="H10" s="61"/>
+      <c r="H10" s="60"/>
       <c r="I10" s="18"/>
-      <c r="J10" s="34"/>
+      <c r="J10" s="33"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="87" t="s">
+      <c r="A11" s="86" t="s">
         <v>527</v>
       </c>
-      <c r="B11" s="61"/>
-      <c r="C11" s="61"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="61"/>
-      <c r="F11" s="61"/>
-      <c r="G11" s="61"/>
-      <c r="H11" s="61"/>
+      <c r="B11" s="60"/>
+      <c r="C11" s="60"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="60"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="60"/>
       <c r="I11" s="18"/>
-      <c r="J11" s="34"/>
+      <c r="J11" s="33"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="88" t="s">
+      <c r="A12" s="87" t="s">
         <v>732</v>
       </c>
-      <c r="B12" s="63"/>
-      <c r="C12" s="63"/>
-      <c r="D12" s="63"/>
-      <c r="E12" s="63"/>
-      <c r="F12" s="63"/>
-      <c r="G12" s="63"/>
-      <c r="H12" s="63"/>
+      <c r="B12" s="62"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="62"/>
+      <c r="H12" s="62"/>
       <c r="I12" s="19"/>
-      <c r="J12" s="64"/>
+      <c r="J12" s="63"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="89" t="s">
+      <c r="A13" s="88" t="s">
         <v>734</v>
       </c>
-      <c r="B13" s="65"/>
-      <c r="C13" s="65"/>
-      <c r="D13" s="65"/>
-      <c r="E13" s="65"/>
-      <c r="F13" s="65"/>
-      <c r="G13" s="65"/>
-      <c r="H13" s="65"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="66"/>
+      <c r="B13" s="64"/>
+      <c r="C13" s="64"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="64"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="65"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="88" t="s">
+      <c r="A14" s="87" t="s">
         <v>542</v>
       </c>
-      <c r="B14" s="63"/>
-      <c r="C14" s="63"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="63"/>
-      <c r="G14" s="63"/>
-      <c r="H14" s="91" t="s">
+      <c r="B14" s="62"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="62"/>
+      <c r="H14" s="90" t="s">
         <v>15</v>
       </c>
       <c r="I14" s="19"/>
-      <c r="J14" s="64"/>
+      <c r="J14" s="63"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="40"/>
-      <c r="B15" s="63"/>
-      <c r="C15" s="63"/>
-      <c r="D15" s="63"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="91" t="s">
+      <c r="A15" s="39"/>
+      <c r="B15" s="62"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="62"/>
+      <c r="G15" s="62"/>
+      <c r="H15" s="90" t="s">
         <v>2</v>
       </c>
       <c r="I15" s="19"/>
-      <c r="J15" s="64"/>
+      <c r="J15" s="63"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="40"/>
-      <c r="B16" s="63"/>
-      <c r="C16" s="63"/>
-      <c r="D16" s="63"/>
-      <c r="E16" s="63"/>
-      <c r="F16" s="63"/>
-      <c r="G16" s="63"/>
-      <c r="H16" s="91" t="s">
+      <c r="A16" s="39"/>
+      <c r="B16" s="62"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="62"/>
+      <c r="H16" s="90" t="s">
         <v>11</v>
       </c>
       <c r="I16" s="19"/>
-      <c r="J16" s="64"/>
+      <c r="J16" s="63"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="40"/>
-      <c r="B17" s="63"/>
-      <c r="C17" s="63"/>
-      <c r="D17" s="63"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="91" t="s">
+      <c r="A17" s="39"/>
+      <c r="B17" s="62"/>
+      <c r="C17" s="62"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="62"/>
+      <c r="F17" s="62"/>
+      <c r="G17" s="62"/>
+      <c r="H17" s="90" t="s">
         <v>12</v>
       </c>
       <c r="I17" s="19"/>
-      <c r="J17" s="64"/>
+      <c r="J17" s="63"/>
     </row>
     <row r="18" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="40"/>
-      <c r="B18" s="63"/>
-      <c r="C18" s="63"/>
-      <c r="D18" s="63"/>
-      <c r="E18" s="63"/>
-      <c r="F18" s="63"/>
-      <c r="G18" s="63"/>
-      <c r="H18" s="91" t="s">
+      <c r="A18" s="39"/>
+      <c r="B18" s="62"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="62"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="62"/>
+      <c r="G18" s="62"/>
+      <c r="H18" s="90" t="s">
         <v>16</v>
       </c>
       <c r="I18" s="19"/>
-      <c r="J18" s="64"/>
+      <c r="J18" s="63"/>
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
@@ -12170,18 +12303,18 @@
       <c r="Q18" s="4"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="40"/>
-      <c r="B19" s="63"/>
-      <c r="C19" s="63"/>
-      <c r="D19" s="63"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="91" t="s">
+      <c r="A19" s="39"/>
+      <c r="B19" s="62"/>
+      <c r="C19" s="62"/>
+      <c r="D19" s="62"/>
+      <c r="E19" s="62"/>
+      <c r="F19" s="62"/>
+      <c r="G19" s="62"/>
+      <c r="H19" s="90" t="s">
         <v>13</v>
       </c>
       <c r="I19" s="19"/>
-      <c r="J19" s="64"/>
+      <c r="J19" s="63"/>
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
@@ -12190,18 +12323,18 @@
       <c r="Q19" s="4"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="40"/>
-      <c r="B20" s="63"/>
-      <c r="C20" s="63"/>
-      <c r="D20" s="63"/>
-      <c r="E20" s="63"/>
-      <c r="F20" s="63"/>
-      <c r="G20" s="63"/>
-      <c r="H20" s="91" t="s">
+      <c r="A20" s="39"/>
+      <c r="B20" s="62"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="62"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="62"/>
+      <c r="H20" s="90" t="s">
         <v>636</v>
       </c>
       <c r="I20" s="19"/>
-      <c r="J20" s="64"/>
+      <c r="J20" s="63"/>
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
@@ -12210,38 +12343,38 @@
       <c r="Q20" s="4"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="40"/>
-      <c r="B21" s="63"/>
-      <c r="C21" s="63"/>
-      <c r="D21" s="63"/>
-      <c r="E21" s="63"/>
-      <c r="F21" s="63"/>
-      <c r="G21" s="63"/>
-      <c r="H21" s="91" t="s">
+      <c r="A21" s="39"/>
+      <c r="B21" s="62"/>
+      <c r="C21" s="62"/>
+      <c r="D21" s="62"/>
+      <c r="E21" s="62"/>
+      <c r="F21" s="62"/>
+      <c r="G21" s="62"/>
+      <c r="H21" s="90" t="s">
         <v>17</v>
       </c>
       <c r="I21" s="19"/>
-      <c r="J21" s="64"/>
+      <c r="J21" s="63"/>
       <c r="L21" s="14"/>
       <c r="M21" s="14"/>
-      <c r="N21" s="33"/>
+      <c r="N21" s="32"/>
       <c r="O21" s="4"/>
       <c r="P21" s="4"/>
       <c r="Q21" s="4"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="40"/>
-      <c r="B22" s="63"/>
-      <c r="C22" s="63"/>
-      <c r="D22" s="63"/>
-      <c r="E22" s="63"/>
-      <c r="F22" s="63"/>
-      <c r="G22" s="63"/>
-      <c r="H22" s="91" t="s">
+      <c r="A22" s="39"/>
+      <c r="B22" s="62"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="62"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="62"/>
+      <c r="G22" s="62"/>
+      <c r="H22" s="90" t="s">
         <v>714</v>
       </c>
       <c r="I22" s="19"/>
-      <c r="J22" s="64"/>
+      <c r="J22" s="63"/>
       <c r="L22" s="14"/>
       <c r="M22" s="14"/>
       <c r="N22" s="4"/>
@@ -12250,18 +12383,18 @@
       <c r="Q22" s="4"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="68"/>
-      <c r="B23" s="65"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="65"/>
-      <c r="H23" s="92" t="s">
+      <c r="A23" s="67"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="64"/>
+      <c r="D23" s="64"/>
+      <c r="E23" s="64"/>
+      <c r="F23" s="64"/>
+      <c r="G23" s="64"/>
+      <c r="H23" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="I23" s="35"/>
-      <c r="J23" s="66"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="65"/>
       <c r="L23" s="14"/>
       <c r="M23" s="14"/>
       <c r="N23" s="4"/>
@@ -12270,18 +12403,18 @@
       <c r="Q23" s="4"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="40" t="s">
+      <c r="A24" s="39" t="s">
         <v>594</v>
       </c>
-      <c r="B24" s="63"/>
-      <c r="C24" s="63"/>
-      <c r="D24" s="63"/>
-      <c r="E24" s="63"/>
-      <c r="F24" s="63"/>
+      <c r="B24" s="62"/>
+      <c r="C24" s="62"/>
+      <c r="D24" s="62"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="62"/>
       <c r="G24" s="17"/>
       <c r="H24" s="20"/>
       <c r="I24" s="19"/>
-      <c r="J24" s="64"/>
+      <c r="J24" s="63"/>
       <c r="L24" s="14"/>
       <c r="M24" s="14"/>
       <c r="N24" s="4"/>
@@ -12290,18 +12423,18 @@
       <c r="Q24" s="4"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="41" t="s">
+      <c r="A25" s="40" t="s">
         <v>4</v>
       </c>
       <c r="B25" s="18"/>
-      <c r="C25" s="61"/>
-      <c r="D25" s="61"/>
-      <c r="E25" s="61"/>
-      <c r="F25" s="61"/>
-      <c r="G25" s="61"/>
-      <c r="H25" s="61"/>
+      <c r="C25" s="60"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="60"/>
+      <c r="F25" s="60"/>
+      <c r="G25" s="60"/>
+      <c r="H25" s="60"/>
       <c r="I25" s="18"/>
-      <c r="J25" s="34"/>
+      <c r="J25" s="33"/>
       <c r="L25" s="4"/>
       <c r="N25" s="4"/>
       <c r="O25" s="4"/>
@@ -12309,18 +12442,18 @@
       <c r="Q25" s="4"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="40" t="s">
+      <c r="A26" s="39" t="s">
         <v>5</v>
       </c>
       <c r="B26" s="19"/>
-      <c r="C26" s="63"/>
-      <c r="D26" s="63"/>
-      <c r="E26" s="63"/>
-      <c r="F26" s="63"/>
-      <c r="G26" s="63"/>
-      <c r="H26" s="63"/>
+      <c r="C26" s="62"/>
+      <c r="D26" s="62"/>
+      <c r="E26" s="62"/>
+      <c r="F26" s="62"/>
+      <c r="G26" s="62"/>
+      <c r="H26" s="62"/>
       <c r="I26" s="19"/>
-      <c r="J26" s="64"/>
+      <c r="J26" s="63"/>
       <c r="L26" s="4"/>
       <c r="N26" s="4"/>
       <c r="O26" s="4"/>
@@ -12328,20 +12461,20 @@
       <c r="Q26" s="4"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27" s="85" t="s">
+      <c r="A27" s="84" t="s">
         <v>528</v>
       </c>
       <c r="B27" s="18" t="s">
         <v>522</v>
       </c>
-      <c r="C27" s="61"/>
-      <c r="D27" s="61"/>
-      <c r="E27" s="61"/>
-      <c r="F27" s="61"/>
-      <c r="G27" s="61"/>
-      <c r="H27" s="61"/>
+      <c r="C27" s="60"/>
+      <c r="D27" s="60"/>
+      <c r="E27" s="60"/>
+      <c r="F27" s="60"/>
+      <c r="G27" s="60"/>
+      <c r="H27" s="60"/>
       <c r="I27" s="18"/>
-      <c r="J27" s="34"/>
+      <c r="J27" s="33"/>
       <c r="L27" s="4"/>
       <c r="N27" s="4"/>
       <c r="O27" s="4"/>
@@ -12349,64 +12482,64 @@
       <c r="Q27" s="4"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" s="90" t="s">
+      <c r="A28" s="89" t="s">
         <v>529</v>
       </c>
-      <c r="B28" s="35" t="s">
+      <c r="B28" s="34" t="s">
         <v>522</v>
       </c>
-      <c r="C28" s="65"/>
-      <c r="D28" s="65"/>
-      <c r="E28" s="65"/>
-      <c r="F28" s="65"/>
-      <c r="G28" s="65"/>
-      <c r="H28" s="65"/>
-      <c r="I28" s="35"/>
-      <c r="J28" s="66"/>
-      <c r="L28" s="38"/>
+      <c r="C28" s="64"/>
+      <c r="D28" s="64"/>
+      <c r="E28" s="64"/>
+      <c r="F28" s="64"/>
+      <c r="G28" s="64"/>
+      <c r="H28" s="64"/>
+      <c r="I28" s="34"/>
+      <c r="J28" s="65"/>
+      <c r="L28" s="37"/>
       <c r="N28" s="4"/>
       <c r="O28" s="4"/>
       <c r="P28" s="4"/>
       <c r="Q28" s="4"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A29" s="88" t="s">
+      <c r="A29" s="87" t="s">
         <v>635</v>
       </c>
-      <c r="B29" s="63"/>
-      <c r="C29" s="63"/>
-      <c r="D29" s="93" t="s">
+      <c r="B29" s="62"/>
+      <c r="C29" s="62"/>
+      <c r="D29" s="92" t="s">
         <v>530</v>
       </c>
-      <c r="E29" s="63"/>
-      <c r="F29" s="63"/>
+      <c r="E29" s="62"/>
+      <c r="F29" s="62"/>
       <c r="G29" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="H29" s="63"/>
+      <c r="H29" s="62"/>
       <c r="I29" s="19"/>
-      <c r="J29" s="64"/>
+      <c r="J29" s="63"/>
       <c r="L29" s="4"/>
-      <c r="N29" s="33"/>
+      <c r="N29" s="32"/>
       <c r="O29" s="4"/>
       <c r="P29" s="4"/>
       <c r="Q29" s="4"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
-      <c r="B30" s="63"/>
-      <c r="C30" s="63"/>
-      <c r="D30" s="93" t="s">
+      <c r="B30" s="62"/>
+      <c r="C30" s="62"/>
+      <c r="D30" s="92" t="s">
         <v>531</v>
       </c>
-      <c r="E30" s="63"/>
-      <c r="F30" s="63"/>
+      <c r="E30" s="62"/>
+      <c r="F30" s="62"/>
       <c r="G30" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="H30" s="63"/>
+      <c r="H30" s="62"/>
       <c r="I30" s="19"/>
-      <c r="J30" s="64"/>
+      <c r="J30" s="63"/>
       <c r="L30" s="4"/>
       <c r="N30" s="4"/>
       <c r="O30" s="4"/>
@@ -12415,19 +12548,19 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
-      <c r="B31" s="63"/>
-      <c r="C31" s="63"/>
-      <c r="D31" s="93" t="s">
+      <c r="B31" s="62"/>
+      <c r="C31" s="62"/>
+      <c r="D31" s="92" t="s">
         <v>532</v>
       </c>
-      <c r="E31" s="63"/>
-      <c r="F31" s="63"/>
+      <c r="E31" s="62"/>
+      <c r="F31" s="62"/>
       <c r="G31" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="H31" s="63"/>
+      <c r="H31" s="62"/>
       <c r="I31" s="19"/>
-      <c r="J31" s="64"/>
+      <c r="J31" s="63"/>
       <c r="K31" s="4"/>
       <c r="L31" s="4"/>
       <c r="N31" s="4"/>
@@ -12437,19 +12570,19 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
-      <c r="B32" s="63"/>
-      <c r="C32" s="63"/>
-      <c r="D32" s="93" t="s">
+      <c r="B32" s="62"/>
+      <c r="C32" s="62"/>
+      <c r="D32" s="92" t="s">
         <v>533</v>
       </c>
-      <c r="E32" s="63"/>
-      <c r="F32" s="63"/>
+      <c r="E32" s="62"/>
+      <c r="F32" s="62"/>
       <c r="G32" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="H32" s="63"/>
+      <c r="H32" s="62"/>
       <c r="I32" s="19"/>
-      <c r="J32" s="64"/>
+      <c r="J32" s="63"/>
       <c r="L32" s="4"/>
       <c r="N32" s="4"/>
       <c r="O32" s="4"/>
@@ -12458,19 +12591,19 @@
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
-      <c r="B33" s="63"/>
-      <c r="C33" s="63"/>
-      <c r="D33" s="93" t="s">
+      <c r="B33" s="62"/>
+      <c r="C33" s="62"/>
+      <c r="D33" s="92" t="s">
         <v>534</v>
       </c>
-      <c r="E33" s="63"/>
-      <c r="F33" s="63"/>
+      <c r="E33" s="62"/>
+      <c r="F33" s="62"/>
       <c r="G33" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="H33" s="63"/>
+      <c r="H33" s="62"/>
       <c r="I33" s="19"/>
-      <c r="J33" s="64"/>
+      <c r="J33" s="63"/>
       <c r="L33" s="4"/>
       <c r="N33" s="4"/>
       <c r="O33" s="4"/>
@@ -12479,19 +12612,19 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
-      <c r="B34" s="63"/>
-      <c r="C34" s="63"/>
-      <c r="D34" s="93" t="s">
+      <c r="B34" s="62"/>
+      <c r="C34" s="62"/>
+      <c r="D34" s="92" t="s">
         <v>535</v>
       </c>
-      <c r="E34" s="63"/>
-      <c r="F34" s="63"/>
+      <c r="E34" s="62"/>
+      <c r="F34" s="62"/>
       <c r="G34" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="H34" s="63"/>
+      <c r="H34" s="62"/>
       <c r="I34" s="19"/>
-      <c r="J34" s="64"/>
+      <c r="J34" s="63"/>
       <c r="K34" s="4"/>
       <c r="L34" s="4"/>
       <c r="N34" s="4"/>
@@ -12501,19 +12634,19 @@
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
-      <c r="B35" s="63"/>
-      <c r="C35" s="63"/>
-      <c r="D35" s="93" t="s">
+      <c r="B35" s="62"/>
+      <c r="C35" s="62"/>
+      <c r="D35" s="92" t="s">
         <v>536</v>
       </c>
-      <c r="E35" s="63"/>
-      <c r="F35" s="63"/>
+      <c r="E35" s="62"/>
+      <c r="F35" s="62"/>
       <c r="G35" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="H35" s="63"/>
+      <c r="H35" s="62"/>
       <c r="I35" s="19"/>
-      <c r="J35" s="64"/>
+      <c r="J35" s="63"/>
       <c r="L35" s="4"/>
       <c r="N35" s="4"/>
       <c r="O35" s="4"/>
@@ -12522,19 +12655,19 @@
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
-      <c r="B36" s="63"/>
-      <c r="C36" s="63"/>
-      <c r="D36" s="93" t="s">
+      <c r="B36" s="62"/>
+      <c r="C36" s="62"/>
+      <c r="D36" s="92" t="s">
         <v>537</v>
       </c>
-      <c r="E36" s="63"/>
-      <c r="F36" s="63"/>
-      <c r="G36" s="104" t="s">
+      <c r="E36" s="62"/>
+      <c r="F36" s="62"/>
+      <c r="G36" s="101" t="s">
         <v>36</v>
       </c>
-      <c r="H36" s="63"/>
+      <c r="H36" s="62"/>
       <c r="I36" s="19"/>
-      <c r="J36" s="64"/>
+      <c r="J36" s="63"/>
       <c r="L36" s="4"/>
       <c r="M36" s="16"/>
       <c r="N36" s="4"/>
@@ -12544,19 +12677,19 @@
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
-      <c r="B37" s="63"/>
-      <c r="C37" s="63"/>
-      <c r="D37" s="93" t="s">
+      <c r="B37" s="62"/>
+      <c r="C37" s="62"/>
+      <c r="D37" s="92" t="s">
         <v>538</v>
       </c>
-      <c r="E37" s="63"/>
-      <c r="F37" s="63"/>
-      <c r="G37" s="105" t="s">
+      <c r="E37" s="62"/>
+      <c r="F37" s="62"/>
+      <c r="G37" s="102" t="s">
         <v>740</v>
       </c>
-      <c r="H37" s="63"/>
+      <c r="H37" s="62"/>
       <c r="I37" s="19"/>
-      <c r="J37" s="64"/>
+      <c r="J37" s="63"/>
       <c r="K37" s="4"/>
       <c r="L37" s="4"/>
       <c r="M37" s="16"/>
@@ -12567,17 +12700,17 @@
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
-      <c r="B38" s="63"/>
-      <c r="C38" s="63"/>
-      <c r="D38" s="93" t="s">
+      <c r="B38" s="62"/>
+      <c r="C38" s="62"/>
+      <c r="D38" s="92" t="s">
         <v>539</v>
       </c>
-      <c r="E38" s="63"/>
-      <c r="F38" s="63"/>
+      <c r="E38" s="62"/>
+      <c r="F38" s="62"/>
       <c r="G38" s="1"/>
-      <c r="H38" s="63"/>
+      <c r="H38" s="62"/>
       <c r="I38" s="19"/>
-      <c r="J38" s="64"/>
+      <c r="J38" s="63"/>
       <c r="L38" s="4"/>
       <c r="M38" s="16"/>
       <c r="N38" s="4"/>
@@ -12587,17 +12720,17 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
-      <c r="B39" s="63"/>
-      <c r="C39" s="63"/>
-      <c r="D39" s="93" t="s">
+      <c r="B39" s="62"/>
+      <c r="C39" s="62"/>
+      <c r="D39" s="92" t="s">
         <v>540</v>
       </c>
-      <c r="E39" s="63"/>
-      <c r="F39" s="63"/>
+      <c r="E39" s="62"/>
+      <c r="F39" s="62"/>
       <c r="G39" s="1"/>
-      <c r="H39" s="63"/>
+      <c r="H39" s="62"/>
       <c r="I39" s="19"/>
-      <c r="J39" s="64"/>
+      <c r="J39" s="63"/>
       <c r="L39" s="4"/>
       <c r="M39" s="4"/>
       <c r="N39" s="4"/>
@@ -12607,17 +12740,17 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
-      <c r="B40" s="63"/>
-      <c r="C40" s="63"/>
-      <c r="D40" s="93" t="s">
+      <c r="B40" s="62"/>
+      <c r="C40" s="62"/>
+      <c r="D40" s="92" t="s">
         <v>541</v>
       </c>
-      <c r="E40" s="63"/>
-      <c r="F40" s="63"/>
+      <c r="E40" s="62"/>
+      <c r="F40" s="62"/>
       <c r="G40" s="1"/>
-      <c r="H40" s="63"/>
+      <c r="H40" s="62"/>
       <c r="I40" s="19"/>
-      <c r="J40" s="64"/>
+      <c r="J40" s="63"/>
       <c r="K40" s="4"/>
       <c r="L40" s="4"/>
       <c r="M40" s="4"/>
@@ -12627,33 +12760,33 @@
       <c r="Q40" s="4"/>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A41" s="94" t="s">
+      <c r="A41" s="93" t="s">
         <v>37</v>
       </c>
-      <c r="B41" s="69" t="s">
+      <c r="B41" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="C41" s="61"/>
-      <c r="D41" s="61"/>
-      <c r="E41" s="61"/>
-      <c r="F41" s="80"/>
-      <c r="G41" s="52"/>
-      <c r="H41" s="61"/>
+      <c r="C41" s="60"/>
+      <c r="D41" s="60"/>
+      <c r="E41" s="60"/>
+      <c r="F41" s="79"/>
+      <c r="G41" s="51"/>
+      <c r="H41" s="60"/>
       <c r="I41" s="18"/>
       <c r="J41" s="18"/>
-      <c r="K41" s="81"/>
+      <c r="K41" s="80"/>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A42" s="52"/>
-      <c r="B42" s="52"/>
-      <c r="C42" s="52"/>
-      <c r="D42" s="52"/>
-      <c r="E42" s="52"/>
-      <c r="F42" s="52"/>
-      <c r="G42" s="52"/>
-      <c r="H42" s="52"/>
-      <c r="I42" s="52"/>
-      <c r="J42" s="52"/>
+      <c r="A42" s="51"/>
+      <c r="B42" s="51"/>
+      <c r="C42" s="51"/>
+      <c r="D42" s="51"/>
+      <c r="E42" s="51"/>
+      <c r="F42" s="51"/>
+      <c r="G42" s="51"/>
+      <c r="H42" s="51"/>
+      <c r="I42" s="51"/>
+      <c r="J42" s="51"/>
       <c r="K42" s="14"/>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
@@ -12678,7 +12811,7 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="H2">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>IF(OR(A2="_ascii",A2="_cmd",A2="_dektec"),0,1)</formula>
+      <formula>IF(OR(A2="_ascii",A2="_HEX",A2="_cmd",A2="_dektec"),0,1)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -12704,364 +12837,364 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="103" t="s">
         <v>549</v>
       </c>
-      <c r="B1" s="103"/>
+      <c r="B1" s="104"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="38" t="s">
         <v>550</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="38" t="s">
         <v>551</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="37" t="s">
         <v>552</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="37" t="s">
         <v>553</v>
       </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-    </row>
-    <row r="4" spans="1:8" s="45" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="44" t="s">
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+    </row>
+    <row r="4" spans="1:8" s="44" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="43" t="s">
         <v>556</v>
       </c>
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="43" t="s">
         <v>557</v>
       </c>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-    </row>
-    <row r="5" spans="1:8" s="45" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="44" t="s">
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+    </row>
+    <row r="5" spans="1:8" s="44" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="43" t="s">
         <v>554</v>
       </c>
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="43" t="s">
         <v>555</v>
       </c>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="43" t="s">
         <v>595</v>
       </c>
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="43" t="s">
         <v>596</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="41" t="s">
         <v>558</v>
       </c>
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="41" t="s">
         <v>559</v>
       </c>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="42" t="s">
+      <c r="A8" s="41" t="s">
         <v>560</v>
       </c>
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="41" t="s">
         <v>561</v>
       </c>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="43"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="42" t="s">
+      <c r="A9" s="41" t="s">
         <v>562</v>
       </c>
-      <c r="B9" s="42" t="s">
+      <c r="B9" s="41" t="s">
         <v>563</v>
       </c>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="43"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="42" t="s">
+      <c r="A10" s="41" t="s">
         <v>564</v>
       </c>
-      <c r="B10" s="42" t="s">
+      <c r="B10" s="41" t="s">
         <v>563</v>
       </c>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="43"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="42" t="s">
+      <c r="A11" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="B11" s="42" t="s">
+      <c r="B11" s="41" t="s">
         <v>565</v>
       </c>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="42" t="s">
+      <c r="A12" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="B12" s="42" t="s">
+      <c r="B12" s="41" t="s">
         <v>566</v>
       </c>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="43"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="42" t="s">
+      <c r="A13" s="41" t="s">
         <v>567</v>
       </c>
-      <c r="B13" s="42" t="s">
+      <c r="B13" s="41" t="s">
         <v>566</v>
       </c>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="43"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="44" t="s">
+      <c r="A14" s="43" t="s">
         <v>568</v>
       </c>
-      <c r="B14" s="44" t="s">
+      <c r="B14" s="43" t="s">
         <v>569</v>
       </c>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="45"/>
-    </row>
-    <row r="15" spans="1:8" s="45" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="44" t="s">
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="44"/>
+    </row>
+    <row r="15" spans="1:8" s="44" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="43" t="s">
         <v>570</v>
       </c>
-      <c r="B15" s="44" t="s">
+      <c r="B15" s="43" t="s">
         <v>571</v>
       </c>
-      <c r="C15" s="44"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
-    </row>
-    <row r="16" spans="1:8" s="45" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="44" t="s">
+      <c r="C15" s="43"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
+    </row>
+    <row r="16" spans="1:8" s="44" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="43" t="s">
         <v>572</v>
       </c>
-      <c r="B16" s="44" t="s">
+      <c r="B16" s="43" t="s">
         <v>573</v>
       </c>
-      <c r="C16" s="44"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="44"/>
-    </row>
-    <row r="17" spans="1:8" s="45" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="44" t="s">
+      <c r="C16" s="43"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
+    </row>
+    <row r="17" spans="1:8" s="44" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="43" t="s">
         <v>574</v>
       </c>
-      <c r="B17" s="44" t="s">
+      <c r="B17" s="43" t="s">
         <v>575</v>
       </c>
-      <c r="C17" s="44"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="44"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="44" t="s">
+      <c r="A18" s="43" t="s">
         <v>576</v>
       </c>
-      <c r="B18" s="44" t="s">
+      <c r="B18" s="43" t="s">
         <v>577</v>
       </c>
-      <c r="C18" s="44"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="45"/>
-    </row>
-    <row r="19" spans="1:8" s="45" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="44" t="s">
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="44"/>
+    </row>
+    <row r="19" spans="1:8" s="44" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="43" t="s">
         <v>578</v>
       </c>
-      <c r="B19" s="44" t="s">
+      <c r="B19" s="43" t="s">
         <v>579</v>
       </c>
-      <c r="C19" s="44"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="44"/>
-    </row>
-    <row r="20" spans="1:8" s="45" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="44" t="s">
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
+    </row>
+    <row r="20" spans="1:8" s="44" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="43" t="s">
         <v>304</v>
       </c>
-      <c r="B20" s="44" t="s">
+      <c r="B20" s="43" t="s">
         <v>580</v>
       </c>
-      <c r="C20" s="44"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="44"/>
-    </row>
-    <row r="21" spans="1:8" s="45" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="44" t="s">
+      <c r="C20" s="43"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="43"/>
+    </row>
+    <row r="21" spans="1:8" s="44" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="43" t="s">
         <v>305</v>
       </c>
-      <c r="B21" s="44" t="s">
+      <c r="B21" s="43" t="s">
         <v>581</v>
       </c>
-      <c r="C21" s="44"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="44"/>
-    </row>
-    <row r="22" spans="1:8" s="45" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="44" t="s">
+      <c r="C21" s="43"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="43"/>
+    </row>
+    <row r="22" spans="1:8" s="44" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="43" t="s">
         <v>306</v>
       </c>
-      <c r="B22" s="44" t="s">
+      <c r="B22" s="43" t="s">
         <v>582</v>
       </c>
-      <c r="C22" s="44"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
-    </row>
-    <row r="23" spans="1:8" s="45" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="44" t="s">
+      <c r="C22" s="43"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="43"/>
+    </row>
+    <row r="23" spans="1:8" s="44" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="43" t="s">
         <v>307</v>
       </c>
-      <c r="B23" s="44" t="s">
+      <c r="B23" s="43" t="s">
         <v>583</v>
       </c>
-      <c r="C23" s="44"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
-    </row>
-    <row r="24" spans="1:8" s="45" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="44" t="s">
+      <c r="C23" s="43"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="43"/>
+    </row>
+    <row r="24" spans="1:8" s="44" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="43" t="s">
         <v>308</v>
       </c>
-      <c r="B24" s="44" t="s">
+      <c r="B24" s="43" t="s">
         <v>584</v>
       </c>
-      <c r="C24" s="44"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="44"/>
-    </row>
-    <row r="25" spans="1:8" s="45" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="44" t="s">
+      <c r="C24" s="43"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="43"/>
+    </row>
+    <row r="25" spans="1:8" s="44" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="43" t="s">
         <v>309</v>
       </c>
-      <c r="B25" s="44" t="s">
+      <c r="B25" s="43" t="s">
         <v>585</v>
       </c>
-      <c r="C25" s="44"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="44"/>
-    </row>
-    <row r="26" spans="1:8" s="45" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="44" t="s">
+      <c r="C25" s="43"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="43"/>
+    </row>
+    <row r="26" spans="1:8" s="44" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="43" t="s">
         <v>591</v>
       </c>
-      <c r="B26" s="44" t="s">
+      <c r="B26" s="43" t="s">
         <v>592</v>
       </c>
-      <c r="C26" s="44"/>
-      <c r="D26" s="44"/>
-      <c r="E26" s="44"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="43"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="44" t="s">
+      <c r="A27" s="43" t="s">
         <v>586</v>
       </c>
-      <c r="B27" s="44" t="s">
+      <c r="B27" s="43" t="s">
         <v>587</v>
       </c>
-      <c r="C27" s="44"/>
-      <c r="D27" s="44"/>
-      <c r="E27" s="44"/>
-      <c r="F27" s="45"/>
-      <c r="G27" s="45"/>
-      <c r="H27" s="45"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="44"/>
+      <c r="H27" s="44"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="44" t="s">
+      <c r="A28" s="43" t="s">
         <v>633</v>
       </c>
-      <c r="B28" s="44" t="s">
+      <c r="B28" s="43" t="s">
         <v>634</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="44" t="s">
+      <c r="A29" s="43" t="s">
         <v>590</v>
       </c>
-      <c r="B29" s="44" t="s">
+      <c r="B29" s="43" t="s">
         <v>710</v>
       </c>
-      <c r="C29" s="44"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="45"/>
-      <c r="G29" s="45"/>
-      <c r="H29" s="45"/>
-    </row>
-    <row r="30" spans="1:8" s="45" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="44" t="s">
+      <c r="C29" s="43"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="44"/>
+      <c r="H29" s="44"/>
+    </row>
+    <row r="30" spans="1:8" s="44" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="43" t="s">
         <v>588</v>
       </c>
-      <c r="B30" s="44" t="s">
+      <c r="B30" s="43" t="s">
         <v>589</v>
       </c>
-      <c r="C30" s="44"/>
-      <c r="D30" s="44"/>
-      <c r="E30" s="44"/>
-    </row>
-    <row r="31" spans="1:8" s="45" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="44" t="s">
+      <c r="C30" s="43"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="43"/>
+    </row>
+    <row r="31" spans="1:8" s="44" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="B31" s="44" t="s">
+      <c r="B31" s="43" t="s">
         <v>593</v>
       </c>
-      <c r="C31" s="44"/>
-      <c r="D31" s="44"/>
-      <c r="E31" s="44"/>
+      <c r="C31" s="43"/>
+      <c r="D31" s="43"/>
+      <c r="E31" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -13084,46 +13217,46 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9" style="78"/>
+    <col min="1" max="3" width="9" style="77"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="77" t="s">
         <v>705</v>
       </c>
-      <c r="B1" s="78" t="s">
+      <c r="B1" s="77" t="s">
         <v>706</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="77" t="s">
         <v>703</v>
       </c>
-      <c r="B2" s="78" t="s">
+      <c r="B2" s="77" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="78" t="s">
+      <c r="A3" s="77" t="s">
         <v>701</v>
       </c>
-      <c r="B3" s="78" t="s">
+      <c r="B3" s="77" t="s">
         <v>702</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="78" t="s">
+      <c r="A4" s="77" t="s">
         <v>700</v>
       </c>
-      <c r="B4" s="78" t="s">
+      <c r="B4" s="77" t="s">
         <v>707</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="78" t="s">
+      <c r="A23" s="77" t="s">
         <v>708</v>
       </c>
-      <c r="B23" s="78" t="s">
+      <c r="B23" s="77" t="s">
         <v>709</v>
       </c>
     </row>
